--- a/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
+++ b/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
@@ -649,13 +649,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49</c:v>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1760,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -2038,7 +2038,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="11">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,7 +2060,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="11">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">

--- a/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
+++ b/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\_Team\Informatiker 17\zsharj\10 - Anwendungsentwicklung\AE700 - Projektarbeit\Dokumentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Sprintbacklog 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A10:L48"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -322,21 +318,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -425,15 +421,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Titillium Lt"/>
-        <scheme val="none"/>
-      </font>
+      <border outline="0">
+        <bottom style="double">
+          <color theme="4"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -454,11 +446,15 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color theme="4"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Titillium Lt"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,13 +645,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49</c:v>
@@ -1426,16 +1422,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" headerRowCellStyle="Überschrift 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Überschrift 2">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="7" name="Kann/Muss" dataDxfId="7"/>
-    <tableColumn id="2" name="Priorisierung" dataDxfId="6"/>
-    <tableColumn id="3" name="Story Points" dataDxfId="5"/>
-    <tableColumn id="4" name="UserStory" dataDxfId="4"/>
-    <tableColumn id="5" name="Status" dataDxfId="3"/>
-    <tableColumn id="6" name="Sprint" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="7" name="Kann/Muss" dataDxfId="5"/>
+    <tableColumn id="2" name="Priorisierung" dataDxfId="4"/>
+    <tableColumn id="3" name="Story Points" dataDxfId="3"/>
+    <tableColumn id="4" name="UserStory" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1706,481 +1702,481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11" style="7"/>
-    <col min="3" max="3" width="15.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="119.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="7"/>
+    <col min="1" max="2" width="11" style="5"/>
+    <col min="3" max="3" width="15.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="119.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8">
+        <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8">
+        <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="8">
+        <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
         <v>5</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
-        <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
-        <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11">
-        <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="8">
         <f>SUM(Tabelle2[Story Points])</f>
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2202,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2215,13 +2211,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2284,30 +2280,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2">
         <v>42370</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3">
         <v>42403</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <f>C21-C20</f>
         <v>33</v>
@@ -2330,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2348,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
+++ b/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -1702,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
+++ b/JavaSurvey/Documentation/220_Scrum Backlog.110.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\_Team\Informatiker 17\zredza\10 - Anwendungsentwicklung\AE700 - Projektarbeit\Erledigt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="6690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Sprintbacklog 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A10:L48"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -645,13 +649,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49</c:v>
@@ -1702,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -1825,7 +1829,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -1848,7 +1852,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>2</v>
@@ -1894,7 +1898,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -1917,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1940,7 +1944,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
         <v>3</v>
@@ -1963,7 +1967,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -2034,7 +2038,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="8">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2045,7 +2049,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="8">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,7 +2060,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="8">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2326,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2344,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
